--- a/unity-business-innovation/src/main/resources/template/satb.xlsx
+++ b/unity-business-innovation/src/main/resources/template/satb.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11013"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gengjiajia\Desktop\经开文档\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qinhuan/Documents/jkWorkspace/innovationpublish-api/unity-business-innovation/src/main/resources/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808E14D3-AA34-440A-AC80-45766795AF90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2317B2F0-2491-4041-BFD7-5AF2A2C3CCBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -115,7 +115,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,12 +146,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑 Bold"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑 Bold"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑 Bold"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -195,21 +222,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -500,24 +533,24 @@
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.05" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="5" customWidth="1"/>
-    <col min="3" max="5" width="10.77734375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" style="5" customWidth="1"/>
-    <col min="7" max="10" width="10.77734375" style="5" customWidth="1"/>
-    <col min="11" max="11" width="17.6640625" style="5" customWidth="1"/>
-    <col min="12" max="17" width="10.77734375" style="5" customWidth="1"/>
-    <col min="18" max="18" width="13.109375" style="5" customWidth="1"/>
-    <col min="19" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="10.83203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="2" customWidth="1"/>
+    <col min="3" max="5" width="10.83203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17.5" style="2" customWidth="1"/>
+    <col min="7" max="10" width="10.83203125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="17.6640625" style="2" customWidth="1"/>
+    <col min="12" max="17" width="10.83203125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="13.1640625" style="2" customWidth="1"/>
+    <col min="19" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:18" ht="37.75" customHeight="1">
+      <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B1" s="4"/>
@@ -538,108 +571,110 @@
       <c r="Q1" s="4"/>
       <c r="R1" s="4"/>
     </row>
-    <row r="2" spans="1:18" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:18" s="6" customFormat="1" ht="19" customHeight="1">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3" t="s">
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="Q2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="R2" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3" t="s">
+    <row r="3" spans="1:18" s="6" customFormat="1" ht="19" customHeight="1">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
     </row>
-    <row r="4" spans="1:18" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="2" t="s">
+    <row r="4" spans="1:18" s="6" customFormat="1" ht="19" customHeight="1">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="O2:O4"/>
+    <mergeCell ref="P2:P4"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:B4"/>
@@ -656,8 +691,6 @@
     <mergeCell ref="L2:L4"/>
     <mergeCell ref="M2:M4"/>
     <mergeCell ref="N2:N4"/>
-    <mergeCell ref="O2:O4"/>
-    <mergeCell ref="P2:P4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/unity-business-innovation/src/main/resources/template/satb.xlsx
+++ b/unity-business-innovation/src/main/resources/template/satb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qinhuan/Documents/jkWorkspace/innovationpublish-api/unity-business-innovation/src/main/resources/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2317B2F0-2491-4041-BFD7-5AF2A2C3CCBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F59AEB1-4B4F-0041-B59E-906A38B0DCD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -230,19 +230,19 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -533,7 +533,7 @@
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" customHeight="1"/>
@@ -550,28 +550,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="37.75" customHeight="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
     </row>
-    <row r="2" spans="1:18" s="6" customFormat="1" ht="19" customHeight="1">
+    <row r="2" spans="1:18" s="3" customFormat="1" ht="19" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -621,7 +621,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="6" customFormat="1" ht="19" customHeight="1">
+    <row r="3" spans="1:18" s="3" customFormat="1" ht="19" customHeight="1">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -645,7 +645,7 @@
       <c r="Q3" s="5"/>
       <c r="R3" s="5"/>
     </row>
-    <row r="4" spans="1:18" s="6" customFormat="1" ht="19" customHeight="1">
+    <row r="4" spans="1:18" s="3" customFormat="1" ht="19" customHeight="1">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -653,13 +653,13 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="4" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="5"/>
@@ -673,6 +673,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="N2:N4"/>
     <mergeCell ref="O2:O4"/>
     <mergeCell ref="P2:P4"/>
     <mergeCell ref="A1:R1"/>
@@ -689,8 +691,6 @@
     <mergeCell ref="R2:R4"/>
     <mergeCell ref="K2:K4"/>
     <mergeCell ref="L2:L4"/>
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="N2:N4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
